--- a/biology/Histoire de la zoologie et de la botanique/Patrick_Bateson/Patrick_Bateson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Patrick_Bateson/Patrick_Bateson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Patrick Gordon Bateson, né le 31 mars 1938 et mort le 1er août 2017[1], est un biologiste et écrivain scientifique britannique. 
-Il est professeur émérite d'éthologie à l'université de Cambridge et président de la Zoological Society of London à partir de 2004[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Patrick Gordon Bateson, né le 31 mars 1938 et mort le 1er août 2017, est un biologiste et écrivain scientifique britannique. 
+Il est professeur émérite d'éthologie à l'université de Cambridge et président de la Zoological Society of London à partir de 2004.
 </t>
         </is>
       </c>
@@ -512,12 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Bateson a obtenu un diplôme de bachelier en zoologie et un doctorat  en comportement animal de l'université de Cambridge. Il reçut une bourse Harkness de l'université Stanford[3] et de dix ans à la tête de la sous-direction de Cambridge Comportement animal. Il a été élu membre distingué de la Royal Society en 1983. Il devient membre honoraire de la Zoological Society of London en 2001[4]. En 2003, Bateson prit sa retraite en tant que secrétaire à la Royal Society de la section biologique après cinq ans et administrateur du King 's College de Cambridge après quinze ans. Il a pris sa retraite de son poste de président de Cambridge en 2005. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Bateson a obtenu un diplôme de bachelier en zoologie et un doctorat  en comportement animal de l'université de Cambridge. Il reçut une bourse Harkness de l'université Stanford et de dix ans à la tête de la sous-direction de Cambridge Comportement animal. Il a été élu membre distingué de la Royal Society en 1983. Il devient membre honoraire de la Zoological Society of London en 2001. En 2003, Bateson prit sa retraite en tant que secrétaire à la Royal Society de la section biologique après cinq ans et administrateur du King 's College de Cambridge après quinze ans. Il a pris sa retraite de son poste de président de Cambridge en 2005. 
 Bateson a publié de nombreux livres et articles sur l'éthologie, le bien-être animal, le développement comportemental et l'évolution. Il donnait des conférences publiques et participait à des émissions.
-Famille
-Le généticien William Bateson était un cousin de l'un de ses grands-pères[5]. Sa fille, Melissa Bateson, également professeur d'éthologie à l'université de Newcastle.
 </t>
         </is>
       </c>
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bateson a été anobli en 2003. Il a reçu un doctorat honoris causa ès sciences de l'université de St Andrews[6] et est devenu membre honoraire de l'université Queen Mary de Londres[7]. 
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le généticien William Bateson était un cousin de l'un de ses grands-pères. Sa fille, Melissa Bateson, également professeur d'éthologie à l'université de Newcastle.
 </t>
         </is>
       </c>
@@ -574,46 +592,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bateson a été anobli en 2003. Il a reçu un doctorat honoris causa ès sciences de l'université de St Andrews et est devenu membre honoraire de l'université Queen Mary de Londres. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Bateson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Bateson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Cube de Bateson</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cube de Bateson est un modèle d'analyse coût-bénéfice pour la recherche animale développé par le professeur Patrick Bateson, président de la Zoological Society of London[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cube de Bateson est un modèle d'analyse coût-bénéfice pour la recherche animale développé par le professeur Patrick Bateson, président de la Zoological Society of London,.
 Le cube de Bateson évalue la recherche proposée selon trois critères :
 le degré de souffrance des animaux ;
 la qualité de la recherche ;
 le bénéfice médical potentiel.
-Bateson a suggéré que la recherche qui ne répond pas à ces exigences ne devrait pas être approuvée ou effectuée, en conformité avec la loi britannique des procédures scientifiques concernant les animaux de 1986 (Animals (Scientific Procedures) Act). Il ne se veut pas être un modèle formel pour des compromis optimaux, mais plutôt un outil pour des décisions judiciaires[10]. Le troisième critère ne doit pas concerner nécessairement le domaine médical, mais pourrait se rapporter à une forme d'utilité plus large[11].
+Bateson a suggéré que la recherche qui ne répond pas à ces exigences ne devrait pas être approuvée ou effectuée, en conformité avec la loi britannique des procédures scientifiques concernant les animaux de 1986 (Animals (Scientific Procedures) Act). Il ne se veut pas être un modèle formel pour des compromis optimaux, mais plutôt un outil pour des décisions judiciaires. Le troisième critère ne doit pas concerner nécessairement le domaine médical, mais pourrait se rapporter à une forme d'utilité plus large.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Patrick_Bateson</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patrick_Bateson</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Growing Points in Ethology, avec Robert Hinde (1976)
 Mate Choice (1983)
@@ -629,31 +684,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Patrick_Bateson</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patrick_Bateson</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Patrick Bateson » (voir la liste des auteurs).
 (en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Bateson's cube » (voir la liste des auteurs).</t>
